--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8489B72-DD8C-41E5-AF71-D2F144D02D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27ED86-FB52-4C93-B090-77BF6F9D3817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -639,7 +639,6 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E72AE1-2C96-4A82-92B5-2D55325974AB}"/>
@@ -694,10 +693,8 @@
             <a:t> TO THE EXCEL OBSTACLE COURSE! Visit </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
-            </a:rPr>
-            <a:t>Excel Obstacle Course - YouTube</a:t>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>ExcelObstacleCourse on Youtube</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
@@ -800,7 +797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -934,7 +931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -978,7 +975,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE27ED86-FB52-4C93-B090-77BF6F9D3817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{646AB082-96E8-4A08-B47D-DFB9A1C72A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId13"/>
     <sheet name="FINAL" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,10 +51,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ryan Park</author>
+    <author>Excel Obstacle Course</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{0D5BA0C5-CD15-4C5B-91CB-EA38B4A4805D}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{6B198658-AE93-4F20-9FBC-A88EC58001DC}">
       <text>
         <r>
           <rPr>
@@ -64,12 +64,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">If you make a mistake and want to undo, hit CTRL and Z for undo.
-</t>
+          <t>If you make a mistake and want to undo, hit CTRL and Z for undo.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18AC0481-5652-445E-8B11-5EE3F5FAE839}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{4B94EC7F-1C3A-4C2C-BD4A-ADF215D2A14C}">
       <text>
         <r>
           <rPr>
@@ -79,12 +78,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. However, it is possible to complete without using the mouse or touchpad.
-</t>
+          <t>Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. However, it is possible to complete without using the mouse or touchpad.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6D0621CF-B35B-4262-B056-34C7E8C7D06E}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{AE6F35D3-51F0-45DC-9AAC-F0B3BB3B3F89}">
       <text>
         <r>
           <rPr>
@@ -3402,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646AB082-96E8-4A08-B47D-DFB9A1C72A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF64D92-42FC-475B-B93B-5C8FFE992373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Page" sheetId="1" r:id="rId1"/>
-    <sheet name="START" sheetId="2" r:id="rId2"/>
-    <sheet name="Row Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Column and Row Delete" sheetId="4" r:id="rId4"/>
-    <sheet name="Arrow Navigation" sheetId="5" r:id="rId5"/>
-    <sheet name="Switching Sheets" sheetId="6" r:id="rId6"/>
-    <sheet name="Switching Sheets2" sheetId="7" r:id="rId7"/>
-    <sheet name="Switching Sheets3" sheetId="8" r:id="rId8"/>
-    <sheet name="Copy Down" sheetId="9" r:id="rId9"/>
-    <sheet name="Copy Right" sheetId="10" r:id="rId10"/>
-    <sheet name="Totals" sheetId="11" r:id="rId11"/>
-    <sheet name="Sorting" sheetId="12" r:id="rId12"/>
-    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId13"/>
-    <sheet name="FINAL" sheetId="14" r:id="rId14"/>
+    <sheet name="Creator's Message" sheetId="15" r:id="rId1"/>
+    <sheet name="Main Page" sheetId="1" r:id="rId2"/>
+    <sheet name="START" sheetId="2" r:id="rId3"/>
+    <sheet name="Row Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Column and Row Delete" sheetId="4" r:id="rId5"/>
+    <sheet name="Arrow Navigation" sheetId="5" r:id="rId6"/>
+    <sheet name="Switching Sheets" sheetId="6" r:id="rId7"/>
+    <sheet name="Switching Sheets2" sheetId="7" r:id="rId8"/>
+    <sheet name="Switching Sheets3" sheetId="8" r:id="rId9"/>
+    <sheet name="Copy Down" sheetId="9" r:id="rId10"/>
+    <sheet name="Copy Right" sheetId="10" r:id="rId11"/>
+    <sheet name="Totals" sheetId="11" r:id="rId12"/>
+    <sheet name="Sorting" sheetId="12" r:id="rId13"/>
+    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId14"/>
+    <sheet name="FINAL" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -624,14 +625,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -639,7 +640,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E72AE1-2C96-4A82-92B5-2D55325974AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07A947D-577C-4A0F-A71E-857A631FF96B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,8 +648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="3619501"/>
-          <a:ext cx="13039725" cy="3276599"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,155 +683,94 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>WELCOME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> TO THE EXCEL OBSTACLE COURSE! Visit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>ExcelObstacleCourse on Youtube</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> for a complete and detailed walkthrough!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>The objective of this game is to increase your efficiency with keyboard shortcuts (hotkeys) in order to eliminate pointing / clicking with the mouse or touchpad. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>You will find that your Excel skills and speed will greatly increase as you improve your best time through the course.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Note: Make sure you DON'T SAVE the course upon exiting, otherwise you will not have the ability to restart the course fresh. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>If you mess up, close out of the spreadsheet and don't save. Reopen the original copy and restart.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Place an "x" in the green box (cell B5) and hit enter to start the timer, then go on to the                tab below to go to the first obstacle. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>When you have completed the obstacle on each tab, continue to the next tab (from left to right).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>There are instructions on each obstacle as well as hotkey tips.              </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Good Luck!</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>230792</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>581025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C455517A-4E15-499D-A3C8-2A67F4845424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3413125" y="152401"/>
-          <a:ext cx="7866667" cy="628649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2743199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A492707-318C-4145-8B29-344A8E48CC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,14 +778,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772274" y="6391275"/>
-          <a:ext cx="11439525" cy="1419225"/>
+          <a:off x="6067425" y="323850"/>
+          <a:ext cx="4781550" cy="1905000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -874,53 +814,99 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Important</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" baseline="0"/>
-            <a:t>Please close all other Excel workbooks you have open before opening the Excel Obstacle Course XTimer. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" baseline="0"/>
-            <a:t>If you have already opened this sheet before closing all other Excel sheets, please close all Excel workbooks and re-open the Obstacle Course. Doing so ensures correct operation of the timer.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0"/>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy down the cells in columns B, C and D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight the cells first.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CTRL and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2505075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523773</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133303</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2442787" cy="2838450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0527A01-D48B-E81F-A152-31FA8E06E8A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,15 +915,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="5600702"/>
-          <a:ext cx="819048" cy="390476"/>
+          <a:off x="6981825" y="1981201"/>
+          <a:ext cx="2442787" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,55 +931,11 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533306</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5D79A2-875B-8DEC-B6A2-7BB2E93A3B71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6610350" y="5619752"/>
-          <a:ext cx="752381" cy="361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1201,7 +1143,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1383,7 +1325,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1569,7 +1511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1882,7 +1824,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1961,6 +1903,380 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E72AE1-2C96-4A82-92B5-2D55325974AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="3619501"/>
+          <a:ext cx="13039725" cy="3276599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>WELCOME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> TO THE EXCEL OBSTACLE COURSE! Visit </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>ExcelObstacleCourse on Youtube</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> for a complete and detailed walkthrough!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>The objective of this game is to increase your efficiency with keyboard shortcuts (hotkeys) in order to eliminate pointing / clicking with the mouse or touchpad. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>You will find that your Excel skills and speed will greatly increase as you improve your best time through the course.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>Note: Make sure you DON'T SAVE the course upon exiting, otherwise you will not have the ability to restart the course fresh. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>If you mess up, close out of the spreadsheet and don't save. Reopen the original copy and restart.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>Place an "x" in the green box (cell B5) and hit enter to start the timer, then go on to the                tab below to go to the first obstacle. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>When you have completed the obstacle on each tab, continue to the next tab (from left to right).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>There are instructions on each obstacle as well as hotkey tips.              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>Good Luck!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230792</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C455517A-4E15-499D-A3C8-2A67F4845424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3413125" y="152401"/>
+          <a:ext cx="7866667" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2743199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A492707-318C-4145-8B29-344A8E48CC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772274" y="6391275"/>
+          <a:ext cx="11439525" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Important</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" baseline="0"/>
+            <a:t>Please close all other Excel workbooks you have open before opening the Excel Obstacle Course XTimer. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" baseline="0"/>
+            <a:t>If you have already opened this sheet before closing all other Excel sheets, please close all Excel workbooks and re-open the Obstacle Course. Doing so ensures correct operation of the timer.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2505075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523773</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0527A01-D48B-E81F-A152-31FA8E06E8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="5600702"/>
+          <a:ext cx="819048" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2581275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533306</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5D79A2-875B-8DEC-B6A2-7BB2E93A3B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="5619752"/>
+          <a:ext cx="752381" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2074,7 +2390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2191,7 +2507,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2314,7 +2630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2425,7 +2741,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2568,7 +2884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2742,7 +3058,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2913,191 +3229,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="323850"/>
-          <a:ext cx="4781550" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy down the cells in columns B, C and D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight the cells first.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CTRL and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2442787" cy="2838450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="1981201"/>
-          <a:ext cx="2442787" cy="2838450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3397,11 +3528,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5539C6-F1BB-45F9-BD52-2F72BDFA7D96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>9308</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <f>A12+1</f>
+        <v>6</v>
+      </c>
+      <c r="B1" s="6">
+        <f t="shared" ref="B1:C10" si="0">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="C1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f t="shared" ref="A2:A10" si="1">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,862 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6">
-        <v>93</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>82</v>
-      </c>
-      <c r="B2" s="6">
-        <v>68</v>
-      </c>
-      <c r="C2" s="6">
-        <v>98</v>
-      </c>
-      <c r="D2" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>94</v>
-      </c>
-      <c r="B4" s="6">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6">
-        <v>94</v>
-      </c>
-      <c r="D4" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>89</v>
-      </c>
-      <c r="D5" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>96</v>
-      </c>
-      <c r="B6" s="6">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>77</v>
-      </c>
-      <c r="B7" s="6">
-        <v>85</v>
-      </c>
-      <c r="C7" s="6">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6">
-        <v>85</v>
-      </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6">
-        <v>77</v>
-      </c>
-      <c r="D10" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>83</v>
-      </c>
-      <c r="B13" s="6">
-        <v>87</v>
-      </c>
-      <c r="C13" s="6">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="6">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>97</v>
-      </c>
-      <c r="B15" s="6">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
-        <v>87</v>
-      </c>
-      <c r="C17" s="6">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>60</v>
-      </c>
-      <c r="B18" s="6">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>8789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>5255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>8703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>8390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>8695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>8762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>5178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>8842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>9025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>9308</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <f>A12+1</f>
-        <v>6</v>
-      </c>
-      <c r="B1" s="6">
-        <f t="shared" ref="B1:C10" si="0">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="C1" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <f t="shared" ref="A2:A10" si="1">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1613475-6024-4178-A6E1-4726614E8B63}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9"/>
@@ -4383,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC07D5-EF80-4153-9E07-F7A15DCAF65E}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A7:A21"/>
@@ -4415,7 +4702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E98D0-7323-471D-A1CC-4652EE3F1587}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A8:I23"/>
@@ -4608,7 +4895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09783C-AC36-40B3-BE1D-87683638E530}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A14:X26"/>
@@ -4981,7 +5268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABFEA3A-40E1-4BC0-A55C-26A2035D475A}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="K5:S11"/>
@@ -5079,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9DF1E5-299F-4E45-9E5E-30DD070D2865}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="K5:S11"/>
@@ -5176,7 +5463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EF86A-A2E4-499A-BA5D-4DB4F6FBA0B9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="K5:S11"/>
@@ -5271,145 +5558,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF64D92-42FC-475B-B93B-5C8FFE992373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE24F28-341B-4537-96C7-A1ABDEB3904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId14"/>
     <sheet name="FINAL" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE24F28-341B-4537-96C7-A1ABDEB3904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749709C9-ABCA-4EF2-A7C0-843D86BE2461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Creator's Message" sheetId="15" r:id="rId1"/>
@@ -3531,7 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5539C6-F1BB-45F9-BD52-2F72BDFA7D96}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
@@ -4542,7 +4542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749709C9-ABCA-4EF2-A7C0-843D86BE2461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA0FBAD-66F4-47D9-AE25-E3E70A82B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -52,10 +52,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Excel Obstacle Course</author>
+    <author>Ryan Park</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{6B198658-AE93-4F20-9FBC-A88EC58001DC}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{0D5BA0C5-CD15-4C5B-91CB-EA38B4A4805D}">
       <text>
         <r>
           <rPr>
@@ -65,11 +65,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>If you make a mistake and want to undo, hit CTRL and Z for undo.</t>
+          <t xml:space="preserve">If you make a mistake and want to undo, hit CTRL and Z for undo.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{4B94EC7F-1C3A-4C2C-BD4A-ADF215D2A14C}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18AC0481-5652-445E-8B11-5EE3F5FAE839}">
       <text>
         <r>
           <rPr>
@@ -79,11 +80,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. However, it is possible to complete without using the mouse or touchpad.</t>
+          <t xml:space="preserve">Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. However, it is possible to complete without using the mouse or touchpad.
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{AE6F35D3-51F0-45DC-9AAC-F0B3BB3B3F89}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6D0621CF-B35B-4262-B056-34C7E8C7D06E}">
       <text>
         <r>
           <rPr>
@@ -640,7 +642,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07A947D-577C-4A0F-A71E-857A631FF96B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A4427F-E7C0-4DB3-B52D-DFC1083A26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,11 +3530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5539C6-F1BB-45F9-BD52-2F72BDFA7D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4542,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA0FBAD-66F4-47D9-AE25-E3E70A82B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A38B5C-0241-4549-9A33-1C43EF36BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Creator's Message" sheetId="15" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ryan Park</author>
+    <author>Excel Obstacle Course</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{0D5BA0C5-CD15-4C5B-91CB-EA38B4A4805D}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{54EE51D9-AD0F-4E49-B429-F052578B4BED}">
       <text>
         <r>
           <rPr>
@@ -63,14 +63,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">If you make a mistake and want to undo, hit CTRL and Z for undo.
+          <t>If you make a mistake and want to undo, hit CTRL and Z for undo.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18AC0481-5652-445E-8B11-5EE3F5FAE839}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{80B8DCDA-1FD3-43F7-B50D-C60138636A70}">
       <text>
         <r>
           <rPr>
@@ -85,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6D0621CF-B35B-4262-B056-34C7E8C7D06E}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{D133AC42-C67D-4851-8C30-CB86BCBF0B44}">
       <text>
         <r>
           <rPr>
@@ -166,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="mm:ss.000"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +273,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3533,7 +3555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A38B5C-0241-4549-9A33-1C43EF36BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D724D634-7204-4BD4-AA60-D68DE72B44A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -52,10 +52,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Excel Obstacle Course</author>
+    <author>Ryan Park</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{54EE51D9-AD0F-4E49-B429-F052578B4BED}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{0D5BA0C5-CD15-4C5B-91CB-EA38B4A4805D}">
       <text>
         <r>
           <rPr>
@@ -63,23 +63,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>If you make a mistake and want to undo, hit CTRL and Z for undo.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">If you make a mistake and want to undo, hit CTRL and Z for undo.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{80B8DCDA-1FD3-43F7-B50D-C60138636A70}">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18AC0481-5652-445E-8B11-5EE3F5FAE839}">
       <text>
         <r>
           <rPr>
@@ -94,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{D133AC42-C67D-4851-8C30-CB86BCBF0B44}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6D0621CF-B35B-4262-B056-34C7E8C7D06E}">
       <text>
         <r>
           <rPr>
@@ -148,15 +139,6 @@
     <t>Your Time:</t>
   </si>
   <si>
-    <t>Starting TIP 1:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting TIP 2: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting TIP 3: </t>
-  </si>
-  <si>
     <t>Type an 'x' in green cell  to start timer ------------------------------------&gt;</t>
   </si>
   <si>
@@ -164,6 +146,15 @@
   </si>
   <si>
     <t>Go back to Main Page using (CTRL and Pg Up) and stop the timer!</t>
+  </si>
+  <si>
+    <t>Starting TIP1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting TIP2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting TIP3: </t>
   </si>
 </sst>
 </file>
@@ -175,7 +166,7 @@
     <numFmt numFmtId="165" formatCode="mm:ss.000"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,19 +264,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4450,7 +4428,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -4602,7 +4580,7 @@
     </row>
     <row r="5" spans="1:18" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="24" t="str">
@@ -4614,7 +4592,7 @@
     </row>
     <row r="6" spans="1:18" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="24" t="str">
@@ -4631,7 +4609,7 @@
       <c r="B7" s="16"/>
       <c r="D7" s="29"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L7" s="19"/>
     </row>
@@ -4639,13 +4617,13 @@
       <c r="B8" s="16"/>
       <c r="D8" s="30"/>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="17"/>
     </row>

--- a/Excel Obstacle Course XTimer.xlsx
+++ b/Excel Obstacle Course XTimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D724D634-7204-4BD4-AA60-D68DE72B44A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA391788-7D8B-4AE1-8938-3CCD4EF50619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
@@ -49,65 +49,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ryan Park</author>
-  </authors>
-  <commentList>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{0D5BA0C5-CD15-4C5B-91CB-EA38B4A4805D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If you make a mistake and want to undo, hit CTRL and Z for undo.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{18AC0481-5652-445E-8B11-5EE3F5FAE839}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. However, it is possible to complete without using the mouse or touchpad.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{6D0621CF-B35B-4262-B056-34C7E8C7D06E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>When using arrows, consider the Shift key your 'highlight' key and the control (CTRL) key your 'warp' key.
-Holding Shift and using arrows will highlight cells as you go.
-Holding the CTRL key and using arrows will 'warp' you to the next cell with a value in it.
-Holding both Shift and CTRL at the same time, and using the arrows will cause you to both 'warp' and 'highlight.'</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>x</t>
   </si>
@@ -148,13 +91,34 @@
     <t>Go back to Main Page using (CTRL and Pg Up) and stop the timer!</t>
   </si>
   <si>
-    <t>Starting TIP1:</t>
+    <t>If you make a mistake and want to undo, hit CTRL and Z for undo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Starting TIP2: </t>
+    <t>Starting Tip 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Starting TIP3: </t>
+    <t>Starting Tip 2</t>
+  </si>
+  <si>
+    <t>Starting Tip 3</t>
+  </si>
+  <si>
+    <t>When using arrows, consider the Shift key your 'highlight' key and the control (CTRL) key your 'warp' key.</t>
+  </si>
+  <si>
+    <t>Holding Shift and using arrows will highlight cells as you go.</t>
+  </si>
+  <si>
+    <t>Holding the CTRL key and using arrows will 'warp' you to the next cell with a value in it.</t>
+  </si>
+  <si>
+    <t>Holding both Shift and CTRL at the same time, and using the arrows will cause you to both 'warp' and 'highlight.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try the obstacle course without the mouse, but if it is needed as a 'rescue' feel free. </t>
+  </si>
+  <si>
+    <t>However, it is possible to complete without using the mouse or touchpad.</t>
   </si>
 </sst>
 </file>
@@ -210,13 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="48"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -261,6 +218,12 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -553,32 +516,32 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1906,15 +1869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1929,7 +1892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="3619501"/>
+          <a:off x="438150" y="5000626"/>
           <a:ext cx="13039725" cy="3276599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2096,16 +2059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2743199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2120,7 +2083,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772274" y="6391275"/>
+          <a:off x="7877174" y="7410450"/>
           <a:ext cx="11439525" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2186,23 +2149,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2505075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523773</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133303</xdr:rowOff>
+      <xdr:colOff>619031</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0527A01-D48B-E81F-A152-31FA8E06E8A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5D79A2-875B-8DEC-B6A2-7BB2E93A3B71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,52 +2181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="5600702"/>
-          <a:ext cx="819048" cy="390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533306</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5D79A2-875B-8DEC-B6A2-7BB2E93A3B71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6610350" y="5619752"/>
-          <a:ext cx="752381" cy="361905"/>
+          <a:off x="6905625" y="7044523"/>
+          <a:ext cx="542831" cy="261109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4541,8 +4460,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
-  <dimension ref="A1:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4608,7 +4527,10 @@
     <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="D7" s="29"/>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="19"/>
@@ -4616,22 +4538,49 @@
     <row r="8" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="D8" s="30"/>
-      <c r="F8" t="s">
-        <v>14</v>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
       </c>
       <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>15</v>
+      <c r="I9" t="s">
+        <v>22</v>
       </c>
       <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4647,7 +4596,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
